--- a/Python/统计建模/数据收集2.xlsx
+++ b/Python/统计建模/数据收集2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwh\Desktop\Code\Python\统计建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E995CF7-C3D8-4953-85FA-B8BCE4CE0366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189F8FC-A5D9-4049-B4B5-F4640A31A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-372" yWindow="1848" windowWidth="13164" windowHeight="8880" xr2:uid="{5CC3B7C8-F94C-492E-A08D-200E3B5A4B9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CC3B7C8-F94C-492E-A08D-200E3B5A4B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,6 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t>Shirai:</t>
         </r>
@@ -322,6 +323,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 中国碳核算</t>
@@ -588,10 +590,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GDP总量(万亿元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -680,6 +678,10 @@
   </si>
   <si>
     <t>焦炭产量(万吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,12 +801,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1283,7 +1287,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1299,76 +1303,76 @@
   <sheetData>
     <row r="1" spans="1:24" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
